--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1834255.359611767</v>
+        <v>1759923.533253473</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15609235.68401653</v>
+        <v>15609235.68401652</v>
       </c>
     </row>
     <row r="9">
@@ -1390,55 +1390,55 @@
         <v>200.1948230289689</v>
       </c>
       <c r="I11" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="J11" t="n">
-        <v>24.50765323923468</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>151.8239468846812</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>53.09543380873263</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>200.1948230289689</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="V12" t="n">
-        <v>53.09543380873279</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>21.33810557658769</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7774890093424744</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>131.6739630196907</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>178.950661757518</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>24.50765323923468</v>
@@ -1654,7 +1654,7 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R14" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.94145178856338</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S15" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="U15" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="V15" t="n">
-        <v>53.09543380873263</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.33810557658769</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7774890093424744</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>151.8239468846812</v>
+        <v>151.823946884681</v>
       </c>
       <c r="G17" t="n">
         <v>200.1948230289689</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.811493187916984</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>80.04197706599582</v>
       </c>
       <c r="V18" t="n">
         <v>200.1948230289689</v>
@@ -2043,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="E20" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G20" t="n">
         <v>200.1948230289689</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.263491967783781</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>133.0827343114269</v>
       </c>
       <c r="I21" t="n">
-        <v>100.3110001810774</v>
+        <v>55.98314354385479</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>36.9073738373734</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.11559458593017</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>151.823946884681</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>24.50765323923468</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>156.1816162589256</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>65.27749945666706</v>
+        <v>171.2285693098369</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>200.1948230289689</v>
       </c>
       <c r="C26" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.263491967784006</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>152.9181242911417</v>
       </c>
       <c r="S26" t="n">
-        <v>3.263491967783982</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>53.09543380873263</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>22.11559458593017</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>176.3316001239157</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>23.41347583277435</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>200.1948230289689</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.2310748464833</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W30" t="n">
-        <v>200.1948230289689</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,55 +2964,55 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="H32" t="n">
-        <v>156.1816162589256</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3.263491967783757</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="X32" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>76.0205999428383</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="U33" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="X33" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.659623877332267</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.263491967783781</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="U35" t="n">
-        <v>176.3316001239157</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51.94609641653918</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>137.2183740184508</v>
       </c>
       <c r="W36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3450,40 +3450,40 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>23.41347583277413</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.263491967783781</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R38" t="n">
         <v>152.9181242911417</v>
       </c>
       <c r="S38" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>200.1948230289689</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>187.4605452976028</v>
+        <v>45.04514778945735</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.14900112370393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3739,64 +3739,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.1816162589254</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="E41" t="n">
+      <c r="U41" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>20.14998386499036</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>15.08152972995783</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.62081250950911</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.659623877332267</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="D44" t="n">
-        <v>131.6739630196907</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>24.50765323923468</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.94734485284907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>176.3316001239157</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.882134867989792</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7774890093424744</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>647.4217700101372</v>
+        <v>598.562299157321</v>
       </c>
       <c r="C11" t="n">
-        <v>647.4217700101372</v>
+        <v>598.562299157321</v>
       </c>
       <c r="D11" t="n">
-        <v>647.4217700101372</v>
+        <v>598.562299157321</v>
       </c>
       <c r="E11" t="n">
-        <v>647.4217700101372</v>
+        <v>598.562299157321</v>
       </c>
       <c r="F11" t="n">
-        <v>647.4217700101372</v>
+        <v>598.562299157321</v>
       </c>
       <c r="G11" t="n">
-        <v>445.2047770515827</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="H11" t="n">
-        <v>242.9877840930282</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="I11" t="n">
-        <v>40.77079113447376</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J11" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K11" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L11" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245964</v>
       </c>
       <c r="M11" t="n">
-        <v>383.8129092844018</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N11" t="n">
-        <v>572.7990561059415</v>
+        <v>572.7990561059413</v>
       </c>
       <c r="O11" t="n">
-        <v>723.4688780473043</v>
+        <v>723.4688780473041</v>
       </c>
       <c r="P11" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q11" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="W11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="X11" t="n">
-        <v>647.4217700101372</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Y11" t="n">
-        <v>647.4217700101372</v>
+        <v>598.562299157321</v>
       </c>
     </row>
     <row r="12">
@@ -5123,49 +5123,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K12" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L12" t="n">
-        <v>176.8739046191359</v>
+        <v>147.7506776403953</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0667794178152</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N12" t="n">
-        <v>573.2596542164944</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O12" t="n">
-        <v>759.6726902745457</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P12" t="n">
-        <v>800.7792921158757</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q12" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R12" t="n">
-        <v>675.1373691791317</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="S12" t="n">
-        <v>474.0813230813787</v>
+        <v>474.0813230813785</v>
       </c>
       <c r="T12" t="n">
-        <v>271.8643301228243</v>
+        <v>271.8643301228241</v>
       </c>
       <c r="U12" t="n">
-        <v>69.64733716426983</v>
+        <v>271.8643301228241</v>
       </c>
       <c r="V12" t="n">
-        <v>16.01558584231751</v>
+        <v>271.8643301228241</v>
       </c>
       <c r="W12" t="n">
-        <v>16.01558584231751</v>
+        <v>271.8643301228241</v>
       </c>
       <c r="X12" t="n">
-        <v>16.01558584231751</v>
+        <v>69.64733716426966</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.01558584231751</v>
+        <v>69.64733716426966</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K13" t="n">
-        <v>16.80092827599678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L13" t="n">
         <v>16.01558584231751</v>
@@ -5229,22 +5229,22 @@
         <v>38.35457027255001</v>
       </c>
       <c r="T13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>625.9630212510957</v>
+        <v>578.2087801017752</v>
       </c>
       <c r="C14" t="n">
-        <v>625.9630212510957</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="D14" t="n">
-        <v>625.9630212510957</v>
+        <v>242.9877840930282</v>
       </c>
       <c r="E14" t="n">
-        <v>625.9630212510957</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="F14" t="n">
-        <v>625.9630212510957</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="G14" t="n">
-        <v>445.2047770515826</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="H14" t="n">
-        <v>242.9877840930282</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="I14" t="n">
         <v>40.77079113447375</v>
@@ -5302,28 +5302,28 @@
         <v>780.4257730603297</v>
       </c>
       <c r="R14" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="S14" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="T14" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="U14" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="V14" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="W14" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="X14" t="n">
-        <v>625.9630212510957</v>
+        <v>578.2087801017752</v>
       </c>
       <c r="Y14" t="n">
-        <v>625.9630212510957</v>
+        <v>578.2087801017752</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.01558584231751</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="C15" t="n">
-        <v>16.01558584231751</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="D15" t="n">
-        <v>16.01558584231751</v>
+        <v>299.0830606857162</v>
       </c>
       <c r="E15" t="n">
-        <v>16.01558584231751</v>
+        <v>299.0830606857162</v>
       </c>
       <c r="F15" t="n">
-        <v>16.01558584231751</v>
+        <v>123.3412949025607</v>
       </c>
       <c r="G15" t="n">
-        <v>16.01558584231751</v>
+        <v>123.3412949025607</v>
       </c>
       <c r="H15" t="n">
-        <v>16.01558584231751</v>
+        <v>117.3398284494664</v>
       </c>
       <c r="I15" t="n">
         <v>16.01558584231751</v>
@@ -5363,19 +5363,19 @@
         <v>16.01558584231751</v>
       </c>
       <c r="L15" t="n">
-        <v>176.8739046191359</v>
+        <v>88.24928185437003</v>
       </c>
       <c r="M15" t="n">
-        <v>375.0667794178151</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N15" t="n">
-        <v>573.2596542164943</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O15" t="n">
-        <v>759.6726902745456</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P15" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q15" t="n">
         <v>800.7792921158755</v>
@@ -5384,25 +5384,25 @@
         <v>675.1373691791315</v>
       </c>
       <c r="S15" t="n">
-        <v>474.0813230813785</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="T15" t="n">
-        <v>271.8643301228241</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="U15" t="n">
-        <v>69.64733716426966</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="V15" t="n">
-        <v>16.01558584231751</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="W15" t="n">
-        <v>16.01558584231751</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="X15" t="n">
-        <v>16.01558584231751</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.01558584231751</v>
+        <v>472.9203762205771</v>
       </c>
     </row>
     <row r="16">
@@ -5415,31 +5415,31 @@
         <v>38.35457027255001</v>
       </c>
       <c r="C16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K16" t="n">
-        <v>16.80092827599678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L16" t="n">
         <v>16.01558584231751</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="C17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="D17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="E17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="F17" t="n">
-        <v>647.4217700101372</v>
+        <v>647.421770010137</v>
       </c>
       <c r="G17" t="n">
-        <v>445.2047770515827</v>
+        <v>445.2047770515826</v>
       </c>
       <c r="H17" t="n">
         <v>242.9877840930282</v>
       </c>
       <c r="I17" t="n">
-        <v>40.77079113447376</v>
+        <v>40.77079113447375</v>
       </c>
       <c r="J17" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K17" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L17" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245964</v>
       </c>
       <c r="M17" t="n">
-        <v>383.8129092844018</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N17" t="n">
-        <v>572.7990561059415</v>
+        <v>572.7990561059413</v>
       </c>
       <c r="O17" t="n">
-        <v>723.4688780473043</v>
+        <v>723.4688780473041</v>
       </c>
       <c r="P17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="W17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="X17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>589.6618009877081</v>
+        <v>189.8529013771783</v>
       </c>
       <c r="C18" t="n">
-        <v>589.6618009877081</v>
+        <v>189.8529013771783</v>
       </c>
       <c r="D18" t="n">
-        <v>589.6618009877081</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E18" t="n">
-        <v>589.6618009877081</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F18" t="n">
-        <v>413.9200352045527</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G18" t="n">
-        <v>251.7668328044431</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H18" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I18" t="n">
         <v>16.01558584231751</v>
@@ -5597,49 +5597,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K18" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L18" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M18" t="n">
-        <v>294.2292951126622</v>
+        <v>356.160249877725</v>
       </c>
       <c r="N18" t="n">
-        <v>492.4221699113414</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O18" t="n">
-        <v>678.8352059693927</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P18" t="n">
-        <v>800.7792921158757</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q18" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R18" t="n">
-        <v>791.8787939462626</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="S18" t="n">
-        <v>791.8787939462626</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="T18" t="n">
-        <v>791.8787939462626</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="U18" t="n">
-        <v>791.8787939462626</v>
+        <v>392.0698943357328</v>
       </c>
       <c r="V18" t="n">
-        <v>589.6618009877081</v>
+        <v>189.8529013771783</v>
       </c>
       <c r="W18" t="n">
-        <v>589.6618009877081</v>
+        <v>189.8529013771783</v>
       </c>
       <c r="X18" t="n">
-        <v>589.6618009877081</v>
+        <v>189.8529013771783</v>
       </c>
       <c r="Y18" t="n">
-        <v>589.6618009877081</v>
+        <v>189.8529013771783</v>
       </c>
     </row>
     <row r="19">
@@ -5691,13 +5691,13 @@
         <v>38.35457027255001</v>
       </c>
       <c r="P19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S19" t="n">
         <v>16.01558584231751</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>423.7460282925413</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="C20" t="n">
-        <v>423.7460282925413</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="D20" t="n">
-        <v>423.7460282925413</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="E20" t="n">
-        <v>221.5290353339869</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="F20" t="n">
-        <v>221.5290353339869</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="G20" t="n">
-        <v>19.31204237543244</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H20" t="n">
-        <v>19.31204237543244</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I20" t="n">
-        <v>19.31204237543244</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J20" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K20" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L20" t="n">
-        <v>199.5520805245964</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M20" t="n">
-        <v>383.8129092844017</v>
+        <v>383.8129092844016</v>
       </c>
       <c r="N20" t="n">
         <v>572.7990561059413</v>
@@ -5773,31 +5773,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q20" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="W20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="X20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Y20" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>763.499116522569</v>
+        <v>598.562299157321</v>
       </c>
       <c r="C21" t="n">
-        <v>763.499116522569</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="D21" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="E21" t="n">
-        <v>589.6618009877081</v>
+        <v>206.9912200395718</v>
       </c>
       <c r="F21" t="n">
-        <v>413.9200352045527</v>
+        <v>206.9912200395718</v>
       </c>
       <c r="G21" t="n">
-        <v>251.7668328044431</v>
+        <v>206.9912200395718</v>
       </c>
       <c r="H21" t="n">
-        <v>117.3398284494664</v>
+        <v>72.56421568459507</v>
       </c>
       <c r="I21" t="n">
         <v>16.01558584231751</v>
@@ -5834,22 +5834,22 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K21" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L21" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M21" t="n">
-        <v>375.0667794178151</v>
+        <v>441.3978573201848</v>
       </c>
       <c r="N21" t="n">
-        <v>573.2596542164943</v>
+        <v>569.8726388941882</v>
       </c>
       <c r="O21" t="n">
-        <v>678.8352059693925</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P21" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q21" t="n">
         <v>800.7792921158755</v>
@@ -5864,19 +5864,19 @@
         <v>800.7792921158755</v>
       </c>
       <c r="U21" t="n">
-        <v>763.499116522569</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V21" t="n">
-        <v>763.499116522569</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="W21" t="n">
-        <v>763.499116522569</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="X21" t="n">
-        <v>763.499116522569</v>
+        <v>598.562299157321</v>
       </c>
       <c r="Y21" t="n">
-        <v>763.499116522569</v>
+        <v>598.562299157321</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>38.35457027255001</v>
       </c>
       <c r="R22" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="S22" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="T22" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U22" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V22" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W22" t="n">
         <v>16.01558584231751</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="C23" t="n">
-        <v>800.7792921158755</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="D23" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E23" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F23" t="n">
-        <v>647.421770010137</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G23" t="n">
-        <v>445.2047770515826</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H23" t="n">
-        <v>242.9877840930282</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I23" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J23" t="n">
         <v>16.01558584231751</v>
@@ -6010,31 +6010,31 @@
         <v>800.7792921158757</v>
       </c>
       <c r="Q23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="R23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="S23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="T23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="U23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="V23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="W23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="X23" t="n">
-        <v>800.7792921158757</v>
+        <v>780.4257730603299</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.7792921158757</v>
+        <v>622.6665647179808</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16.01558584231751</v>
+        <v>627.8211412978584</v>
       </c>
       <c r="C24" t="n">
-        <v>16.01558584231751</v>
+        <v>425.6041483393039</v>
       </c>
       <c r="D24" t="n">
-        <v>16.01558584231751</v>
+        <v>251.7668328044431</v>
       </c>
       <c r="E24" t="n">
-        <v>16.01558584231751</v>
+        <v>251.7668328044431</v>
       </c>
       <c r="F24" t="n">
-        <v>16.01558584231751</v>
+        <v>251.7668328044431</v>
       </c>
       <c r="G24" t="n">
-        <v>16.01558584231751</v>
+        <v>251.7668328044431</v>
       </c>
       <c r="H24" t="n">
-        <v>16.01558584231751</v>
+        <v>117.3398284494664</v>
       </c>
       <c r="I24" t="n">
         <v>16.01558584231751</v>
@@ -6071,13 +6071,13 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K24" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L24" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M24" t="n">
-        <v>356.160249877725</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N24" t="n">
         <v>484.6350314517284</v>
@@ -6092,28 +6092,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R24" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S24" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T24" t="n">
-        <v>408.144454943331</v>
+        <v>627.8211412978584</v>
       </c>
       <c r="U24" t="n">
-        <v>408.144454943331</v>
+        <v>627.8211412978584</v>
       </c>
       <c r="V24" t="n">
-        <v>408.144454943331</v>
+        <v>627.8211412978584</v>
       </c>
       <c r="W24" t="n">
-        <v>408.144454943331</v>
+        <v>627.8211412978584</v>
       </c>
       <c r="X24" t="n">
-        <v>408.144454943331</v>
+        <v>627.8211412978584</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.9274619847766</v>
+        <v>627.8211412978584</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="H25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="I25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="J25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="K25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M25" t="n">
-        <v>784.2480093979</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y25" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>420.4495717594264</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="C26" t="n">
-        <v>218.2325788008719</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="D26" t="n">
-        <v>218.2325788008719</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="E26" t="n">
-        <v>218.2325788008719</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="F26" t="n">
-        <v>218.2325788008719</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="G26" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="H26" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543267</v>
       </c>
       <c r="I26" t="n">
         <v>16.01558584231751</v>
@@ -6253,25 +6253,25 @@
         <v>625.9630212510959</v>
       </c>
       <c r="S26" t="n">
-        <v>622.6665647179808</v>
+        <v>625.9630212510959</v>
       </c>
       <c r="T26" t="n">
-        <v>622.6665647179808</v>
+        <v>625.9630212510959</v>
       </c>
       <c r="U26" t="n">
-        <v>622.6665647179808</v>
+        <v>423.7460282925415</v>
       </c>
       <c r="V26" t="n">
-        <v>622.6665647179808</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="W26" t="n">
-        <v>622.6665647179808</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="X26" t="n">
-        <v>622.6665647179808</v>
+        <v>221.5290353339871</v>
       </c>
       <c r="Y26" t="n">
-        <v>622.6665647179808</v>
+        <v>221.5290353339871</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H27" t="n">
         <v>16.01558584231751</v>
@@ -6314,13 +6314,13 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M27" t="n">
-        <v>375.0667794178151</v>
+        <v>363.9473883373377</v>
       </c>
       <c r="N27" t="n">
-        <v>573.2596542164943</v>
+        <v>492.4221699113411</v>
       </c>
       <c r="O27" t="n">
-        <v>759.6726902745456</v>
+        <v>678.8352059693925</v>
       </c>
       <c r="P27" t="n">
         <v>800.7792921158755</v>
@@ -6329,28 +6329,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R27" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S27" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T27" t="n">
-        <v>271.8643301228241</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U27" t="n">
-        <v>271.8643301228241</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V27" t="n">
-        <v>271.8643301228241</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W27" t="n">
-        <v>271.8643301228241</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X27" t="n">
-        <v>69.64733716426966</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.64733716426966</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="28">
@@ -6420,16 +6420,16 @@
         <v>38.35457027255001</v>
       </c>
       <c r="V28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.1283132402122</v>
+        <v>39.66556143097847</v>
       </c>
       <c r="C29" t="n">
-        <v>194.1283132402122</v>
+        <v>39.66556143097847</v>
       </c>
       <c r="D29" t="n">
-        <v>16.01558584231751</v>
+        <v>39.66556143097847</v>
       </c>
       <c r="E29" t="n">
-        <v>16.01558584231751</v>
+        <v>39.66556143097847</v>
       </c>
       <c r="F29" t="n">
-        <v>16.01558584231751</v>
+        <v>39.66556143097847</v>
       </c>
       <c r="G29" t="n">
         <v>16.01558584231751</v>
@@ -6466,49 +6466,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K29" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812801</v>
       </c>
       <c r="L29" t="n">
         <v>199.5520805245965</v>
       </c>
       <c r="M29" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N29" t="n">
-        <v>572.7990561059413</v>
+        <v>572.7990561059415</v>
       </c>
       <c r="O29" t="n">
-        <v>723.4688780473041</v>
+        <v>723.4688780473043</v>
       </c>
       <c r="P29" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="Q29" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R29" t="n">
-        <v>800.7792921158755</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="S29" t="n">
-        <v>800.7792921158755</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="T29" t="n">
-        <v>800.7792921158755</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="U29" t="n">
-        <v>598.562299157321</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="V29" t="n">
-        <v>598.562299157321</v>
+        <v>241.8825543895329</v>
       </c>
       <c r="W29" t="n">
-        <v>396.3453061987666</v>
+        <v>241.8825543895329</v>
       </c>
       <c r="X29" t="n">
-        <v>396.3453061987666</v>
+        <v>241.8825543895329</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.3453061987666</v>
+        <v>39.66556143097847</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>293.0815942326219</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C30" t="n">
-        <v>293.0815942326219</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D30" t="n">
-        <v>293.0815942326219</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E30" t="n">
-        <v>293.0815942326219</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F30" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G30" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H30" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I30" t="n">
         <v>16.01558584231751</v>
@@ -6551,13 +6551,13 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M30" t="n">
-        <v>363.9473883373377</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N30" t="n">
-        <v>492.4221699113411</v>
+        <v>573.2596542164943</v>
       </c>
       <c r="O30" t="n">
-        <v>678.8352059693925</v>
+        <v>759.6726902745456</v>
       </c>
       <c r="P30" t="n">
         <v>800.7792921158755</v>
@@ -6566,28 +6566,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R30" t="n">
-        <v>697.5155801497307</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S30" t="n">
-        <v>697.5155801497307</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T30" t="n">
-        <v>697.5155801497307</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U30" t="n">
-        <v>697.5155801497307</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V30" t="n">
-        <v>697.5155801497307</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W30" t="n">
-        <v>495.2985871911762</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X30" t="n">
-        <v>495.2985871911762</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y30" t="n">
-        <v>293.0815942326219</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G31" t="n">
         <v>16.01558584231751</v>
@@ -6660,13 +6660,13 @@
         <v>38.35457027255001</v>
       </c>
       <c r="W31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.7747941846666</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="C32" t="n">
-        <v>173.7747941846666</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="D32" t="n">
-        <v>173.7747941846666</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="E32" t="n">
-        <v>173.7747941846666</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="F32" t="n">
-        <v>173.7747941846666</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="G32" t="n">
-        <v>173.7747941846666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H32" t="n">
         <v>16.01558584231751</v>
@@ -6703,49 +6703,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K32" t="n">
-        <v>72.05899007812801</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L32" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M32" t="n">
-        <v>383.8129092844019</v>
+        <v>383.8129092844016</v>
       </c>
       <c r="N32" t="n">
-        <v>572.7990561059415</v>
+        <v>572.7990561059413</v>
       </c>
       <c r="O32" t="n">
-        <v>723.4688780473043</v>
+        <v>723.4688780473041</v>
       </c>
       <c r="P32" t="n">
-        <v>800.7792921158757</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q32" t="n">
-        <v>780.4257730603299</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="R32" t="n">
-        <v>780.4257730603299</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="S32" t="n">
-        <v>780.4257730603299</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="T32" t="n">
-        <v>578.2087801017755</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="U32" t="n">
-        <v>578.2087801017755</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="V32" t="n">
-        <v>578.2087801017755</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="W32" t="n">
-        <v>375.991787143221</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="X32" t="n">
-        <v>173.7747941846666</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.7747941846666</v>
+        <v>420.4495717594264</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I33" t="n">
         <v>16.01558584231751</v>
@@ -6788,43 +6788,43 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M33" t="n">
-        <v>356.160249877725</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N33" t="n">
-        <v>484.6350314517284</v>
+        <v>573.2596542164943</v>
       </c>
       <c r="O33" t="n">
-        <v>671.0480675097798</v>
+        <v>759.6726902745456</v>
       </c>
       <c r="P33" t="n">
-        <v>792.9921536562628</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q33" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R33" t="n">
-        <v>723.9908073251297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S33" t="n">
-        <v>723.9908073251297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T33" t="n">
-        <v>521.7738143665753</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="U33" t="n">
-        <v>521.7738143665753</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="V33" t="n">
-        <v>521.7738143665753</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="W33" t="n">
-        <v>319.5568214080208</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X33" t="n">
-        <v>117.3398284494664</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y33" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="H34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="I34" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J34" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K34" t="n">
         <v>16.01558584231751</v>
@@ -6873,37 +6873,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="C35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="D35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="E35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="F35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="G35" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543244</v>
       </c>
       <c r="H35" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543244</v>
       </c>
       <c r="I35" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543244</v>
       </c>
       <c r="J35" t="n">
         <v>16.01558584231751</v>
@@ -6946,7 +6946,7 @@
         <v>199.5520805245965</v>
       </c>
       <c r="M35" t="n">
-        <v>383.8129092844017</v>
+        <v>383.8129092844016</v>
       </c>
       <c r="N35" t="n">
         <v>572.7990561059413</v>
@@ -6958,31 +6958,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q35" t="n">
-        <v>800.7792921158755</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="R35" t="n">
-        <v>800.7792921158755</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="S35" t="n">
-        <v>598.562299157321</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="T35" t="n">
-        <v>396.3453061987666</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="U35" t="n">
-        <v>218.2325788008719</v>
+        <v>423.7460282925413</v>
       </c>
       <c r="V35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="W35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="X35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.2325788008719</v>
+        <v>221.5290353339869</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.01558584231751</v>
+        <v>662.1748739154201</v>
       </c>
       <c r="C36" t="n">
-        <v>16.01558584231751</v>
+        <v>662.1748739154201</v>
       </c>
       <c r="D36" t="n">
-        <v>16.01558584231751</v>
+        <v>488.3375583805593</v>
       </c>
       <c r="E36" t="n">
-        <v>16.01558584231751</v>
+        <v>488.3375583805593</v>
       </c>
       <c r="F36" t="n">
-        <v>16.01558584231751</v>
+        <v>312.5957925974038</v>
       </c>
       <c r="G36" t="n">
-        <v>16.01558584231751</v>
+        <v>150.4425901972942</v>
       </c>
       <c r="H36" t="n">
         <v>16.01558584231751</v>
@@ -7025,10 +7025,10 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M36" t="n">
-        <v>375.0667794178151</v>
+        <v>363.9473883373377</v>
       </c>
       <c r="N36" t="n">
-        <v>503.5415609918185</v>
+        <v>492.4221699113411</v>
       </c>
       <c r="O36" t="n">
         <v>678.8352059693925</v>
@@ -7040,28 +7040,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R36" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S36" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T36" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U36" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V36" t="n">
-        <v>675.1373691791315</v>
+        <v>662.1748739154201</v>
       </c>
       <c r="W36" t="n">
-        <v>472.9203762205771</v>
+        <v>662.1748739154201</v>
       </c>
       <c r="X36" t="n">
-        <v>270.7033832620226</v>
+        <v>662.1748739154201</v>
       </c>
       <c r="Y36" t="n">
-        <v>68.4863903034682</v>
+        <v>662.1748739154201</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K37" t="n">
         <v>16.01558584231751</v>
@@ -7131,16 +7131,16 @@
         <v>38.35457027255001</v>
       </c>
       <c r="V37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.66556143097824</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="C38" t="n">
-        <v>39.66556143097824</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="D38" t="n">
-        <v>39.66556143097824</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="E38" t="n">
-        <v>39.66556143097824</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="F38" t="n">
-        <v>39.66556143097824</v>
+        <v>221.5290353339869</v>
       </c>
       <c r="G38" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543244</v>
       </c>
       <c r="H38" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543244</v>
       </c>
       <c r="I38" t="n">
-        <v>16.01558584231751</v>
+        <v>19.31204237543244</v>
       </c>
       <c r="J38" t="n">
         <v>16.01558584231751</v>
@@ -7195,31 +7195,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q38" t="n">
-        <v>800.7792921158755</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="R38" t="n">
-        <v>646.3165403066415</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="S38" t="n">
-        <v>444.0995473480871</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="T38" t="n">
-        <v>444.0995473480871</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="U38" t="n">
-        <v>444.0995473480871</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="V38" t="n">
-        <v>444.0995473480871</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="W38" t="n">
-        <v>444.0995473480871</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="X38" t="n">
-        <v>241.8825543895327</v>
+        <v>625.9630212510957</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.66556143097824</v>
+        <v>423.7460282925413</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>581.4239804949276</v>
+        <v>397.5062530595681</v>
       </c>
       <c r="C39" t="n">
-        <v>379.2069875363732</v>
+        <v>397.5062530595681</v>
       </c>
       <c r="D39" t="n">
-        <v>205.3696720015123</v>
+        <v>223.6689375247072</v>
       </c>
       <c r="E39" t="n">
-        <v>16.01558584231751</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="F39" t="n">
-        <v>16.01558584231751</v>
+        <v>178.1687882424271</v>
       </c>
       <c r="G39" t="n">
         <v>16.01558584231751</v>
@@ -7256,19 +7256,19 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K39" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M39" t="n">
-        <v>363.9473883373377</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N39" t="n">
-        <v>492.4221699113411</v>
+        <v>503.5415609918185</v>
       </c>
       <c r="O39" t="n">
-        <v>678.8352059693925</v>
+        <v>689.9545970498699</v>
       </c>
       <c r="P39" t="n">
         <v>800.7792921158755</v>
@@ -7280,25 +7280,25 @@
         <v>800.7792921158755</v>
       </c>
       <c r="S39" t="n">
-        <v>800.7792921158755</v>
+        <v>599.7232460181225</v>
       </c>
       <c r="T39" t="n">
-        <v>800.7792921158755</v>
+        <v>599.7232460181225</v>
       </c>
       <c r="U39" t="n">
-        <v>800.7792921158755</v>
+        <v>599.7232460181225</v>
       </c>
       <c r="V39" t="n">
-        <v>800.7792921158755</v>
+        <v>599.7232460181225</v>
       </c>
       <c r="W39" t="n">
-        <v>800.7792921158755</v>
+        <v>599.7232460181225</v>
       </c>
       <c r="X39" t="n">
-        <v>800.7792921158755</v>
+        <v>397.5062530595681</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.3358566373867</v>
+        <v>397.5062530595681</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E40" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F40" t="n">
-        <v>778.4403076856429</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M40" t="n">
-        <v>784.2480093979</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>622.6665647179808</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="C41" t="n">
-        <v>420.4495717594264</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="D41" t="n">
-        <v>218.2325788008719</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="E41" t="n">
-        <v>16.01558584231751</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="F41" t="n">
         <v>16.01558584231751</v>
@@ -7414,13 +7414,13 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K41" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L41" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245964</v>
       </c>
       <c r="M41" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N41" t="n">
         <v>572.7990561059413</v>
@@ -7432,31 +7432,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q41" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R41" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S41" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T41" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="U41" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="V41" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W41" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X41" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="Y41" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="C42" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="D42" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="E42" t="n">
-        <v>589.6618009877081</v>
+        <v>206.9912200395718</v>
       </c>
       <c r="F42" t="n">
-        <v>413.9200352045527</v>
+        <v>31.24945425641633</v>
       </c>
       <c r="G42" t="n">
-        <v>251.7668328044431</v>
+        <v>31.24945425641633</v>
       </c>
       <c r="H42" t="n">
-        <v>117.3398284494664</v>
+        <v>31.24945425641633</v>
       </c>
       <c r="I42" t="n">
-        <v>16.01558584231751</v>
+        <v>31.24945425641633</v>
       </c>
       <c r="J42" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K42" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L42" t="n">
-        <v>176.8739046191359</v>
+        <v>243.2049825215057</v>
       </c>
       <c r="M42" t="n">
-        <v>294.2292951126619</v>
+        <v>387.8223176348794</v>
       </c>
       <c r="N42" t="n">
-        <v>492.4221699113411</v>
+        <v>586.0151924335586</v>
       </c>
       <c r="O42" t="n">
-        <v>678.8352059693925</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P42" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q42" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R42" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S42" t="n">
-        <v>589.6618009877081</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T42" t="n">
-        <v>589.6618009877081</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U42" t="n">
-        <v>589.6618009877081</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V42" t="n">
-        <v>589.6618009877081</v>
+        <v>598.562299157321</v>
       </c>
       <c r="W42" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X42" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="Y42" t="n">
-        <v>589.6618009877081</v>
+        <v>396.3453061987666</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="C43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="D43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="E43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="F43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="G43" t="n">
         <v>16.01558584231751</v>
@@ -7584,37 +7584,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O43" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P43" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>578.2087801017752</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="C44" t="n">
-        <v>375.9917871432208</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="D44" t="n">
-        <v>242.9877840930282</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="E44" t="n">
-        <v>242.9877840930282</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="F44" t="n">
-        <v>242.9877840930282</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="G44" t="n">
-        <v>40.77079113447375</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="H44" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I44" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J44" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K44" t="n">
-        <v>72.05899007812801</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L44" t="n">
         <v>199.5520805245965</v>
       </c>
       <c r="M44" t="n">
-        <v>383.8129092844019</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N44" t="n">
-        <v>572.7990561059415</v>
+        <v>572.7990561059413</v>
       </c>
       <c r="O44" t="n">
-        <v>723.4688780473043</v>
+        <v>723.4688780473041</v>
       </c>
       <c r="P44" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="Q44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U44" t="n">
-        <v>780.4257730603297</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="V44" t="n">
-        <v>780.4257730603297</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="W44" t="n">
-        <v>780.4257730603297</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="X44" t="n">
-        <v>780.4257730603297</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="Y44" t="n">
-        <v>780.4257730603297</v>
+        <v>622.6665647179808</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.01558584231751</v>
+        <v>579.423566982726</v>
       </c>
       <c r="C45" t="n">
-        <v>16.01558584231751</v>
+        <v>579.423566982726</v>
       </c>
       <c r="D45" t="n">
-        <v>16.01558584231751</v>
+        <v>579.423566982726</v>
       </c>
       <c r="E45" t="n">
-        <v>16.01558584231751</v>
+        <v>390.0694808235312</v>
       </c>
       <c r="F45" t="n">
-        <v>16.01558584231751</v>
+        <v>214.3277150403757</v>
       </c>
       <c r="G45" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="H45" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="I45" t="n">
-        <v>16.01558584231751</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="J45" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K45" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L45" t="n">
-        <v>176.8739046191359</v>
+        <v>189.6294428362002</v>
       </c>
       <c r="M45" t="n">
-        <v>363.9473883373377</v>
+        <v>387.8223176348794</v>
       </c>
       <c r="N45" t="n">
-        <v>492.4221699113411</v>
+        <v>586.0151924335586</v>
       </c>
       <c r="O45" t="n">
-        <v>678.8352059693925</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P45" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q45" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R45" t="n">
-        <v>800.7792921158755</v>
+        <v>781.6405599412805</v>
       </c>
       <c r="S45" t="n">
-        <v>800.7792921158755</v>
+        <v>781.6405599412805</v>
       </c>
       <c r="T45" t="n">
-        <v>800.7792921158755</v>
+        <v>579.423566982726</v>
       </c>
       <c r="U45" t="n">
-        <v>800.7792921158755</v>
+        <v>579.423566982726</v>
       </c>
       <c r="V45" t="n">
-        <v>622.6665647179808</v>
+        <v>579.423566982726</v>
       </c>
       <c r="W45" t="n">
-        <v>420.4495717594264</v>
+        <v>579.423566982726</v>
       </c>
       <c r="X45" t="n">
-        <v>218.2325788008719</v>
+        <v>579.423566982726</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.01558584231751</v>
+        <v>579.423566982726</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K46" t="n">
-        <v>16.80092827599678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L46" t="n">
         <v>16.01558584231751</v>
@@ -7821,37 +7821,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="X46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
   </sheetData>
@@ -8771,25 +8771,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>96.41848977889939</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>94.50510685705675</v>
+        <v>34.40268687117259</v>
       </c>
       <c r="N12" t="n">
-        <v>70.42231638856143</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O12" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>1.14629529572408</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>11.83563415094341</v>
@@ -9011,22 +9011,22 @@
         <v>1.759872832997985</v>
       </c>
       <c r="L15" t="n">
-        <v>96.41848977889939</v>
+        <v>6.898668804388379</v>
       </c>
       <c r="M15" t="n">
-        <v>94.50510685705669</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N15" t="n">
-        <v>70.42231638856137</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O15" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>1.146295295723959</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>11.83563415094341</v>
@@ -9245,16 +9245,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M18" t="n">
-        <v>12.85108230639716</v>
+        <v>8.406513480834619</v>
       </c>
       <c r="N18" t="n">
-        <v>70.42231638856146</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>102.4042030119497</v>
@@ -9263,7 +9263,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>11.83563415094341</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
         <v>96.41848977889939</v>
@@ -9491,16 +9491,16 @@
         <v>94.50510685705669</v>
       </c>
       <c r="N21" t="n">
-        <v>70.42231638856137</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>20.75017846128999</v>
+        <v>16.30560963572772</v>
       </c>
       <c r="P21" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>11.83563415094341</v>
@@ -9719,16 +9719,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L24" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>8.406513480834619</v>
+        <v>4.985285882545696</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O24" t="n">
         <v>102.4042030119497</v>
@@ -9962,16 +9962,16 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M27" t="n">
-        <v>94.50510685705669</v>
+        <v>83.27339869495833</v>
       </c>
       <c r="N27" t="n">
-        <v>70.42231638856137</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>1.146295295723959</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>46.7542983874695</v>
@@ -10199,16 +10199,16 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M30" t="n">
-        <v>83.27339869495833</v>
+        <v>94.50510685705669</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>70.42231638856137</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>1.146295295723959</v>
       </c>
       <c r="Q30" t="n">
         <v>46.7542983874695</v>
@@ -10436,19 +10436,19 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M33" t="n">
-        <v>75.40760227110709</v>
+        <v>94.50510685705669</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>70.42231638856137</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>1.146295295723959</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.62009481132077</v>
+        <v>46.7542983874695</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10673,13 +10673,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
-        <v>94.50510685705669</v>
+        <v>83.27339869495833</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>91.17249484985132</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>82.80031984638366</v>
@@ -10904,13 +10904,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L39" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>16.27230990468586</v>
+        <v>94.50510685705669</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>102.4042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>82.80031984638366</v>
+        <v>71.5686116842853</v>
       </c>
       <c r="Q39" t="n">
         <v>46.7542983874695</v>
@@ -11141,25 +11141,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M42" t="n">
-        <v>12.85108230639693</v>
+        <v>40.38840010422288</v>
       </c>
       <c r="N42" t="n">
         <v>70.42231638856134</v>
       </c>
       <c r="O42" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>11.83563415094341</v>
@@ -11314,7 +11314,7 @@
         <v>99.00804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>83.66766412458531</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,25 +11378,25 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>42.30178302606556</v>
       </c>
       <c r="M45" t="n">
-        <v>83.27339869495833</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O45" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>11.83563415094341</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>221.0824706708171</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H11" t="n">
         <v>140.2143329531762</v>
       </c>
       <c r="I11" t="n">
-        <v>18.26617615291656</v>
+        <v>42.12939905796978</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>24.50765323923468</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R11" t="n">
-        <v>1.094177406460489</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S11" t="n">
         <v>214.683906106687</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>134.9173235723018</v>
       </c>
       <c r="C12" t="n">
         <v>203.8424276152394</v>
@@ -23390,19 +23390,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>27.95244995986445</v>
+        <v>27.95244995986451</v>
       </c>
       <c r="U12" t="n">
-        <v>49.42293565463197</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V12" t="n">
-        <v>196.2044913714396</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X12" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199411</v>
       </c>
       <c r="Y12" t="n">
         <v>242.8962664135933</v>
@@ -23442,10 +23442,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K13" t="n">
-        <v>19.05178990139153</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T13" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U13" t="n">
         <v>291.1974793176597</v>
@@ -23497,25 +23497,25 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>201.9231564545178</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>118.9369326142788</v>
       </c>
       <c r="E14" t="n">
-        <v>359.9585549362873</v>
+        <v>159.7637319073185</v>
       </c>
       <c r="F14" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>242.3266319422681</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H14" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I14" t="n">
-        <v>18.26617615291661</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S14" t="n">
         <v>214.683906106687</v>
@@ -23560,7 +23560,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>148.622056274544</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23579,22 +23579,22 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>160.5316703761085</v>
       </c>
       <c r="H15" t="n">
-        <v>133.0827343114269</v>
+        <v>127.1412825228636</v>
       </c>
       <c r="I15" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>35.79733752996917</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T15" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U15" t="n">
-        <v>49.42293565463203</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V15" t="n">
-        <v>196.2044913714398</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23655,7 +23655,7 @@
         <v>175.175320970127</v>
       </c>
       <c r="C16" t="n">
-        <v>165.5867821959998</v>
+        <v>143.4711876100696</v>
       </c>
       <c r="D16" t="n">
         <v>141.3987433365328</v>
@@ -23679,10 +23679,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K16" t="n">
-        <v>19.05178990139153</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>247.3224706886879</v>
+        <v>247.322470688688</v>
       </c>
       <c r="G17" t="n">
-        <v>221.0824706708171</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H17" t="n">
         <v>140.2143329531762</v>
       </c>
       <c r="I17" t="n">
-        <v>18.26617615291656</v>
+        <v>18.26617615291661</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23816,22 +23816,22 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J18" t="n">
         <v>35.79733752996917</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>115.5740105194595</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T18" t="n">
-        <v>228.1472729888334</v>
+        <v>27.95244995986451</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6177586836009</v>
+        <v>169.5757816176051</v>
       </c>
       <c r="V18" t="n">
-        <v>49.10510215120345</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23931,7 +23931,7 @@
         <v>13.4559707085979</v>
       </c>
       <c r="P19" t="n">
-        <v>18.7290176619281</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q19" t="n">
         <v>117.7104335796887</v>
@@ -23940,7 +23940,7 @@
         <v>202.8351353702983</v>
       </c>
       <c r="S19" t="n">
-        <v>236.6308406326193</v>
+        <v>214.5152460466891</v>
       </c>
       <c r="T19" t="n">
         <v>216.3554192360613</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.3615045680943</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>319.1317556432476</v>
+        <v>142.8001555193319</v>
       </c>
       <c r="E20" t="n">
         <v>159.7637319073185</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G20" t="n">
         <v>221.0824706708172</v>
@@ -23992,7 +23992,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J20" t="n">
-        <v>21.2441612714509</v>
+        <v>24.50765323923468</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S20" t="n">
         <v>214.683906106687</v>
@@ -24050,25 +24050,25 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>203.8424276152394</v>
+        <v>3.647604586270518</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>44.3278566372226</v>
       </c>
       <c r="J21" t="n">
         <v>35.79733752996917</v>
@@ -24104,7 +24104,7 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U21" t="n">
-        <v>212.7103848462275</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24113,7 +24113,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199411</v>
       </c>
       <c r="Y21" t="n">
         <v>242.8962664135933</v>
@@ -24174,7 +24174,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R22" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S22" t="n">
         <v>236.6308406326193</v>
@@ -24189,7 +24189,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W22" t="n">
-        <v>272.3702005604075</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X22" t="n">
         <v>217.7416213385031</v>
@@ -24205,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680943</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>133.4022964452396</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>118.9369326142788</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>247.322470688688</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H23" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I23" t="n">
-        <v>18.26617615291661</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>24.50765323923468</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>152.9181242911417</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>221.7473601362565</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>203.8424276152394</v>
+        <v>3.647604586270518</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24302,10 +24302,10 @@
         <v>160.5316703761085</v>
       </c>
       <c r="H24" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>100.3110001810774</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>35.79733752996917</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T24" t="n">
-        <v>162.8697735321663</v>
+        <v>56.91870367899648</v>
       </c>
       <c r="U24" t="n">
         <v>249.6177586836009</v>
@@ -24353,7 +24353,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24390,7 +24390,7 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K25" t="n">
-        <v>40.38989547797922</v>
+        <v>18.27430089204905</v>
       </c>
       <c r="L25" t="n">
         <v>0.7774890093424744</v>
@@ -24429,7 +24429,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X25" t="n">
-        <v>195.6260267525728</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y25" t="n">
         <v>215.5502738121359</v>
@@ -24445,7 +24445,7 @@
         <v>164.3615045680943</v>
       </c>
       <c r="C26" t="n">
-        <v>133.4022964452396</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24457,13 +24457,13 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H26" t="n">
         <v>340.4091559821451</v>
       </c>
       <c r="I26" t="n">
-        <v>218.4609991818855</v>
+        <v>215.1975072141015</v>
       </c>
       <c r="J26" t="n">
         <v>24.50765323923468</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>211.420414138903</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T26" t="n">
         <v>215.3895565962661</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W26" t="n">
         <v>325.3917254792934</v>
@@ -24539,7 +24539,7 @@
         <v>160.5316703761085</v>
       </c>
       <c r="H27" t="n">
-        <v>79.98730050269432</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I27" t="n">
         <v>100.3110001810774</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T27" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>106.9176566390154</v>
       </c>
       <c r="X27" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.175320970127</v>
+        <v>153.0597263841969</v>
       </c>
       <c r="C28" t="n">
         <v>165.5867821959998</v>
@@ -24660,7 +24660,7 @@
         <v>291.1974793176597</v>
       </c>
       <c r="V28" t="n">
-        <v>215.2459554903416</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
         <v>294.4857951463376</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.3615045680943</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>142.8001555193319</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24694,7 +24694,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.2772936997861</v>
+        <v>397.8638178670117</v>
       </c>
       <c r="H29" t="n">
         <v>340.4091559821451</v>
@@ -24727,7 +24727,7 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R29" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>214.683906106687</v>
@@ -24739,16 +24739,16 @@
         <v>48.52174827781303</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W29" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
         <v>160.5316703761085</v>
@@ -24779,7 +24779,7 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J30" t="n">
         <v>35.79733752996917</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.15442886089315</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S30" t="n">
         <v>199.0454856367754</v>
@@ -24815,13 +24815,13 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W30" t="n">
-        <v>83.05443373396224</v>
+        <v>106.9176566390154</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24852,7 +24852,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>146.7136078779125</v>
+        <v>168.8292024638427</v>
       </c>
       <c r="H31" t="n">
         <v>163.9752151566217</v>
@@ -24900,7 +24900,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W31" t="n">
-        <v>294.4857951463376</v>
+        <v>272.3702005604075</v>
       </c>
       <c r="X31" t="n">
         <v>217.7416213385031</v>
@@ -24928,13 +24928,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G32" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H32" t="n">
-        <v>184.2275397232195</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I32" t="n">
         <v>218.4609991818855</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>214.683906106687</v>
       </c>
       <c r="T32" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7165713067819</v>
+        <v>245.4530793389982</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="33">
@@ -25016,7 +25016,7 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J33" t="n">
         <v>35.79733752996917</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.36490376453818</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S33" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T33" t="n">
-        <v>27.95244995986451</v>
+        <v>51.81567286491767</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W33" t="n">
-        <v>83.05443373396224</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="34">
@@ -25095,13 +25095,13 @@
         <v>163.9752151566217</v>
       </c>
       <c r="I34" t="n">
-        <v>155.5506962241489</v>
+        <v>133.4351016382188</v>
       </c>
       <c r="J34" t="n">
         <v>103.6341439005505</v>
       </c>
       <c r="K34" t="n">
-        <v>31.73027160064696</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L34" t="n">
         <v>0.7774890093424744</v>
@@ -25113,7 +25113,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P34" t="n">
         <v>40.84461224785827</v>
@@ -25177,7 +25177,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J35" t="n">
-        <v>24.50765323923468</v>
+        <v>21.2441612714509</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T35" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U35" t="n">
-        <v>72.3849711828662</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.0666609644953</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>172.0989423795122</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>100.3110001810774</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S36" t="n">
         <v>199.0454856367754</v>
@@ -25292,16 +25292,16 @@
         <v>249.6177586836009</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>112.0815511617216</v>
       </c>
       <c r="W36" t="n">
-        <v>83.05443373396224</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25338,7 +25338,7 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K37" t="n">
-        <v>18.27430089204905</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L37" t="n">
         <v>0.7774890093424744</v>
@@ -25371,7 +25371,7 @@
         <v>291.1974793176597</v>
       </c>
       <c r="V37" t="n">
-        <v>237.3615500762718</v>
+        <v>215.2459554903416</v>
       </c>
       <c r="W37" t="n">
         <v>294.4857951463376</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680943</v>
       </c>
       <c r="C38" t="n">
         <v>333.5971194742085</v>
@@ -25405,7 +25405,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>397.863817867012</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H38" t="n">
         <v>340.4091559821451</v>
@@ -25414,7 +25414,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J38" t="n">
-        <v>24.50765323923468</v>
+        <v>21.2441612714509</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T38" t="n">
         <v>215.3895565962661</v>
@@ -25456,7 +25456,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>177.7341533662133</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>142.4153975081455</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>133.0827343114269</v>
@@ -25520,7 +25520,7 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S39" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>228.1472729888334</v>
@@ -25535,10 +25535,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199411</v>
       </c>
       <c r="Y39" t="n">
-        <v>213.7472652898894</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="40">
@@ -25557,13 +25557,13 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>114.3161298179835</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H40" t="n">
         <v>163.9752151566217</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>208.3747113381378</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>133.4022964452396</v>
       </c>
       <c r="D41" t="n">
-        <v>118.9369326142788</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>159.7637319073185</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>222.8148174494533</v>
       </c>
       <c r="G41" t="n">
         <v>421.2772936997861</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R41" t="n">
         <v>152.9181242911417</v>
@@ -25681,10 +25681,10 @@
         <v>214.683906106687</v>
       </c>
       <c r="T41" t="n">
-        <v>215.3895565962661</v>
+        <v>15.19473356729725</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25715,22 +25715,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J42" t="n">
-        <v>35.79733752996917</v>
+        <v>20.71580780001134</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S42" t="n">
-        <v>114.4246731272663</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T42" t="n">
         <v>228.1472729888334</v>
@@ -25766,10 +25766,10 @@
         <v>249.6177586836009</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25800,7 +25800,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H43" t="n">
         <v>163.9752151566217</v>
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P43" t="n">
         <v>40.84461224785827</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.0508097023564</v>
+        <v>117.7104335796887</v>
       </c>
       <c r="R43" t="n">
         <v>202.8351353702983</v>
@@ -25864,31 +25864,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>164.3615045680943</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>133.4022964452396</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D44" t="n">
-        <v>187.4577926235569</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>359.9585549362873</v>
+        <v>159.7637319073185</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G44" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H44" t="n">
-        <v>340.4091559821451</v>
+        <v>140.2143329531762</v>
       </c>
       <c r="I44" t="n">
         <v>218.4609991818855</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>24.50765323923468</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R44" t="n">
         <v>152.9181242911417</v>
@@ -25921,7 +25921,7 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7165713067819</v>
+        <v>72.3849711828662</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25952,13 +25952,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
-        <v>187.4605452976028</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>133.0827343114269</v>
@@ -25967,7 +25967,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J45" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>124.3855037073765</v>
+        <v>105.4381588545274</v>
       </c>
       <c r="S45" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T45" t="n">
-        <v>228.1472729888334</v>
+        <v>27.95244995986451</v>
       </c>
       <c r="U45" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V45" t="n">
-        <v>72.96832505625667</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>83.05443373396224</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="46">
@@ -26049,10 +26049,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K46" t="n">
-        <v>32.50776060998943</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P46" t="n">
         <v>40.84461224785827</v>
@@ -26088,7 +26088,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X46" t="n">
-        <v>217.7416213385031</v>
+        <v>195.6260267525729</v>
       </c>
       <c r="Y46" t="n">
         <v>215.5502738121359</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>435051.471074194</v>
+        <v>435051.4710741941</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>435051.4710741939</v>
+        <v>435051.471074194</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435051.4710741939</v>
+        <v>435051.4710741941</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435051.4710741941</v>
+        <v>435051.471074194</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435051.471074194</v>
+        <v>435051.4710741939</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435051.471074194</v>
+        <v>435051.4710741939</v>
       </c>
     </row>
     <row r="12">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>713195.7535049173</v>
+        <v>713195.7535049169</v>
       </c>
       <c r="C2" t="n">
         <v>713195.753504917</v>
       </c>
       <c r="D2" t="n">
-        <v>713195.7535049171</v>
+        <v>713195.753504917</v>
       </c>
       <c r="E2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="F2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="G2" t="n">
         <v>324725.2816894841</v>
       </c>
       <c r="H2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="I2" t="n">
         <v>324725.2816894841</v>
@@ -26340,22 +26340,22 @@
         <v>324725.2816894841</v>
       </c>
       <c r="K2" t="n">
-        <v>324725.2816894841</v>
+        <v>324725.2816894843</v>
       </c>
       <c r="L2" t="n">
         <v>324725.2816894842</v>
       </c>
       <c r="M2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="N2" t="n">
-        <v>324725.281689484</v>
+        <v>324725.2816894843</v>
       </c>
       <c r="O2" t="n">
         <v>324725.2816894841</v>
       </c>
       <c r="P2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.281689484</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49889.35067811117</v>
+        <v>49889.35067811119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>491762.3201270435</v>
       </c>
       <c r="E4" t="n">
-        <v>2230.30353032398</v>
+        <v>2230.303530323979</v>
       </c>
       <c r="F4" t="n">
         <v>2230.303530323979</v>
       </c>
       <c r="G4" t="n">
-        <v>2230.30353032398</v>
+        <v>2230.303530323979</v>
       </c>
       <c r="H4" t="n">
         <v>2230.303530323979</v>
@@ -26450,7 +26450,7 @@
         <v>2230.303530323979</v>
       </c>
       <c r="M4" t="n">
-        <v>2230.30353032398</v>
+        <v>2230.303530323979</v>
       </c>
       <c r="N4" t="n">
         <v>2230.303530323979</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187805.8333778738</v>
+        <v>187758.8888369406</v>
       </c>
       <c r="C6" t="n">
-        <v>187805.8333778735</v>
+        <v>187758.8888369407</v>
       </c>
       <c r="D6" t="n">
-        <v>187805.8333778736</v>
+        <v>187758.8888369407</v>
       </c>
       <c r="E6" t="n">
-        <v>-224223.5983756414</v>
+        <v>-237219.5586437554</v>
       </c>
       <c r="F6" t="n">
-        <v>297780.7032876844</v>
+        <v>284784.7430195704</v>
       </c>
       <c r="G6" t="n">
-        <v>297780.7032876842</v>
+        <v>284784.7430195704</v>
       </c>
       <c r="H6" t="n">
-        <v>297780.7032876844</v>
+        <v>284784.7430195704</v>
       </c>
       <c r="I6" t="n">
-        <v>297780.7032876843</v>
+        <v>284784.7430195704</v>
       </c>
       <c r="J6" t="n">
-        <v>297780.7032876843</v>
+        <v>284784.7430195704</v>
       </c>
       <c r="K6" t="n">
-        <v>297780.7032876842</v>
+        <v>284784.7430195705</v>
       </c>
       <c r="L6" t="n">
-        <v>297780.7032876844</v>
+        <v>284784.7430195705</v>
       </c>
       <c r="M6" t="n">
-        <v>247891.3526095732</v>
+        <v>234895.3923414592</v>
       </c>
       <c r="N6" t="n">
-        <v>297780.7032876842</v>
+        <v>284784.7430195705</v>
       </c>
       <c r="O6" t="n">
-        <v>297780.7032876843</v>
+        <v>284784.7430195704</v>
       </c>
       <c r="P6" t="n">
-        <v>297780.7032876844</v>
+        <v>284784.7430195703</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.1948230289689</v>
+        <v>200.194823028969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L12" t="n">
-        <v>162.4831502796146</v>
+        <v>66.06466050071518</v>
       </c>
       <c r="M12" t="n">
-        <v>200.1948230289689</v>
+        <v>140.0924030430848</v>
       </c>
       <c r="N12" t="n">
         <v>200.1948230289689</v>
@@ -35506,10 +35506,10 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P12" t="n">
-        <v>41.52182004174744</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>162.4831502796146</v>
+        <v>72.96332930510356</v>
       </c>
       <c r="M15" t="n">
         <v>200.1948230289689</v>
@@ -35743,10 +35743,10 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P15" t="n">
-        <v>41.52182004174732</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L18" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M18" t="n">
-        <v>118.5407984783093</v>
+        <v>114.0962296527468</v>
       </c>
       <c r="N18" t="n">
-        <v>200.1948230289689</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O18" t="n">
         <v>188.2959960182337</v>
@@ -35983,7 +35983,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L21" t="n">
         <v>162.4831502796146</v>
@@ -36211,16 +36211,16 @@
         <v>200.1948230289689</v>
       </c>
       <c r="N21" t="n">
-        <v>200.1948230289689</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O21" t="n">
-        <v>106.641971467574</v>
+        <v>102.1974026420117</v>
       </c>
       <c r="P21" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M24" t="n">
-        <v>114.0962296527468</v>
+        <v>110.6750020544579</v>
       </c>
       <c r="N24" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O24" t="n">
         <v>188.2959960182337</v>
@@ -36682,16 +36682,16 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M27" t="n">
-        <v>200.1948230289689</v>
+        <v>188.9631148668705</v>
       </c>
       <c r="N27" t="n">
-        <v>200.1948230289689</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O27" t="n">
         <v>188.2959960182337</v>
       </c>
       <c r="P27" t="n">
-        <v>41.52182004174732</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M30" t="n">
-        <v>188.9631148668705</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N30" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O30" t="n">
         <v>188.2959960182337</v>
       </c>
       <c r="P30" t="n">
-        <v>123.175844592407</v>
+        <v>41.52182004174732</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M33" t="n">
-        <v>181.0973184430193</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N33" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O33" t="n">
         <v>188.2959960182337</v>
       </c>
       <c r="P33" t="n">
-        <v>123.175844592407</v>
+        <v>41.52182004174732</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.865796423851265</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M36" t="n">
-        <v>200.1948230289689</v>
+        <v>188.9631148668705</v>
       </c>
       <c r="N36" t="n">
         <v>129.7725066404075</v>
       </c>
       <c r="O36" t="n">
-        <v>177.0642878561353</v>
+        <v>188.2959960182337</v>
       </c>
       <c r="P36" t="n">
         <v>123.175844592407</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M39" t="n">
-        <v>121.962026076598</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N39" t="n">
         <v>129.7725066404075</v>
@@ -37639,7 +37639,7 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P39" t="n">
-        <v>123.175844592407</v>
+        <v>111.9441364303087</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L42" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M42" t="n">
-        <v>118.5407984783091</v>
+        <v>146.0781162761351</v>
       </c>
       <c r="N42" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="O42" t="n">
-        <v>188.2959960182337</v>
+        <v>85.89179300628402</v>
       </c>
       <c r="P42" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>152.1917393347099</v>
       </c>
       <c r="P44" t="n">
-        <v>78.09132734199108</v>
+        <v>78.09132734199125</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L45" t="n">
-        <v>162.4831502796146</v>
+        <v>108.3664435267807</v>
       </c>
       <c r="M45" t="n">
-        <v>188.9631148668705</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N45" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O45" t="n">
-        <v>188.2959960182337</v>
+        <v>85.89179300628402</v>
       </c>
       <c r="P45" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
